--- a/testData/audit_mount_test_data.xlsx
+++ b/testData/audit_mount_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_audit_mount" sheetId="3" r:id="rId1"/>
@@ -181,15 +181,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.11.212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/var/share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> test_F06_S15_T22_add_002</t>
+  </si>
+  <si>
+    <t>172.16.20.212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -736,10 +736,10 @@
         <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -749,7 +749,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
